--- a/Documentation/EJJournaldebord.xlsx
+++ b/Documentation/EJJournaldebord.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Date</t>
   </si>
@@ -31,6 +31,15 @@
   </si>
   <si>
     <t>MàJ Documentation USECASES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Création maquettes du jeu </t>
+  </si>
+  <si>
+    <t>Sur Balsamiq</t>
+  </si>
+  <si>
+    <t>MàJ Documentation Maquettes + modification USECASES</t>
   </si>
 </sst>
 </file>
@@ -352,13 +361,13 @@
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.5703125" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" customWidth="1"/>
+    <col min="2" max="2" width="41.7109375" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -382,10 +391,23 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+      <c r="A3" s="1">
+        <v>43441</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>43445</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
